--- a/SDIRR_ols1.xlsx
+++ b/SDIRR_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,7 +20,16 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">LFund_SD</t>
+    <t xml:space="preserve">Fund_SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal_Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1982</t>
@@ -137,125 +146,125 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.830 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.855)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.042)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.047)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.046)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.418 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.207)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.906)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.896)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.889)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.893)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.874)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.883)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.877)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.872)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.870)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.867)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.861)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.858)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.020 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.859)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.961 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.863)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.790 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.869)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.865)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.881)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.910 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.038 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.882)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.809 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.880 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.909 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.955)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.987 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.936)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.913)   </t>
+    <t xml:space="preserve">0.402 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.586 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.485 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.790 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.678 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.233)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.052)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.540)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.932)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.931)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.939)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.408)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.368)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.343)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.355)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.287)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.317)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.291)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.278)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.271)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.252)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.236)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.234)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.225)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.226)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.243)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.247)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.260)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.246)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.296)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.275)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.299)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.590)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.518)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.433)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="70">
+  <numFmts count="76">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -326,6 +335,12 @@
     <numFmt numFmtId="50067" formatCode="0.000"/>
     <numFmt numFmtId="50068" formatCode="0.000"/>
     <numFmt numFmtId="50069" formatCode="0.000"/>
+    <numFmt numFmtId="50070" formatCode="0.000"/>
+    <numFmt numFmtId="50071" formatCode="0.000"/>
+    <numFmt numFmtId="50072" formatCode="0.000"/>
+    <numFmt numFmtId="50073" formatCode="0.000"/>
+    <numFmt numFmtId="50074" formatCode="0.000"/>
+    <numFmt numFmtId="50075" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -431,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -553,7 +568,10 @@
     <xf numFmtId="50034" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50035" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50035" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50036" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -565,7 +583,7 @@
     <xf numFmtId="50038" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50039" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50039" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50040" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -643,10 +661,7 @@
     <xf numFmtId="50064" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50065" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50065" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50066" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -658,7 +673,31 @@
     <xf numFmtId="50068" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50069" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50069" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50070" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50071" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50072" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50073" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50074" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50075" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -959,586 +998,472 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
+      <c r="B2" s="6" t="n">
+        <v>5.746</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>44</v>
+      <c r="C5" s="50" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>-1.6</v>
+        <v>-6.337</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>-6.165</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-1.879</v>
+        <v>-6.571</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>-6.771</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-1.846</v>
+        <v>-6.782</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>-6.986</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>-6.075</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="n">
+        <v>-6.142</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-1.938</v>
+        <v>-6.165</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-1.592</v>
+        <v>-6.019</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="n">
+        <v>-5.793</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-1.612</v>
+        <v>-5.362</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="n">
+        <v>-5.401</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-1.62</v>
+        <v>-5.909</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="n">
+        <v>-6.177</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-1.265</v>
+        <v>-5.82</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>52</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="n">
+        <v>-5.281</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-1.664</v>
+        <v>-4.839</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="30" t="n">
-        <v>-1.49</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="31" t="n">
+        <v>-6.257</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-1.502</v>
+        <v>-6.215</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="n">
+        <v>-6.267</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-1.421</v>
+        <v>-5.107</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="36" t="n">
-        <v>-1.554</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="n">
+        <v>-6.481</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-1.556</v>
+        <v>-6.25</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="39" t="n">
+        <v>-6.259</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>-1.467</v>
+        <v>-6.486</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="41" t="n">
+        <v>-5.408</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-1.432</v>
+        <v>910</v>
+      </c>
+      <c r="C38" s="83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-1.478</v>
+        <v>0.078</v>
+      </c>
+      <c r="C40" s="83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="C41" s="83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>61</v>
+      <c r="C42" s="84" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="52" t="n">
-        <v>-1.689</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="54" t="n">
-        <v>-1.569</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="56" t="n">
-        <v>-1.57</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="70" t="n">
-        <v>-1.613</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="72" t="n">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="73" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="74" t="n">
-        <v>0.081</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="75" t="n">
-        <v>3.115</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="4"/>
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A73:B73"/>
+  <mergeCells count="2">
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
